--- a/biology/Médecine/Fresenius/Fresenius.xlsx
+++ b/biology/Médecine/Fresenius/Fresenius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fresenius est une entreprise allemande spécialisée dans les soins de santé qui fait partie du DAX.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1462, la pharmacie Hirsch s’ouvre à Francfort. La famille Fresenius en prend la direction au XVIIIe siècle.
 En 1912, le pharmacien et propriétaire de la pharmacie Hirsch, le docteur Eduard Fresenius, fonde la compagnie pharmaceutique Dr E. Fresenius. Les principaux produits sont les solutions injectables, les agents sérologiques et la pommade nasale Bormelin.
@@ -535,9 +549,9 @@
 En 2006, Fresenius Kabi et Sandoz collaborent au développement d’une forme modifiée d’un médicament Biotechnologie (HESylation-technologie).
 Acquisition des laboratoires pharmaceutiques argentins Filaxis : élargissement de la gamme IV Drugs.
 En 2007, acquisition des activités de remplissage vasculaire des laboratoires pharmaceutiques japonais : Kyorin.
-En septembre 2013, elle annonce l'acquisition une grande partie de l'activité à Rhön-Klinikum pour 3,07 milliards d'euros[4]. Cette opération inclut 43 hôpitaux.
-En septembre 2016, Fresenius annonce l'acquisition pour 5,8 milliards d'euros d'IDC Salud Holding, également connue sous la marque Quirónsalud et qui est la plus grande entreprise gérant des hôpitaux d'Espagne, avec 43 hôpitaux gérés et 35 000 salariés[5].
-En avril 2017, Fresenius annonce l'acquisition d'Akorn pour 4,37 milliards de dollars, ce qui lui permet de se renforcer dans les médicaments génériques notamment dans l'ophtalmologie et dans les crèmes, les sprays et les gouttes médicales. En parallèle, Fresenius annonce l'acquisition de l'activité de biosimilaires de Merck KGaA pour un montant compris entre 170 et 670 millions d'euros en fonction des résultats futurs de cette activité[6]. En avril 2018, Fresenius annonce l'annulation de l'acquisition d'Akorn à la suite de la découverte d'irrégularités réglementaires[7].
+En septembre 2013, elle annonce l'acquisition une grande partie de l'activité à Rhön-Klinikum pour 3,07 milliards d'euros. Cette opération inclut 43 hôpitaux.
+En septembre 2016, Fresenius annonce l'acquisition pour 5,8 milliards d'euros d'IDC Salud Holding, également connue sous la marque Quirónsalud et qui est la plus grande entreprise gérant des hôpitaux d'Espagne, avec 43 hôpitaux gérés et 35 000 salariés.
+En avril 2017, Fresenius annonce l'acquisition d'Akorn pour 4,37 milliards de dollars, ce qui lui permet de se renforcer dans les médicaments génériques notamment dans l'ophtalmologie et dans les crèmes, les sprays et les gouttes médicales. En parallèle, Fresenius annonce l'acquisition de l'activité de biosimilaires de Merck KGaA pour un montant compris entre 170 et 670 millions d'euros en fonction des résultats futurs de cette activité. En avril 2018, Fresenius annonce l'annulation de l'acquisition d'Akorn à la suite de la découverte d'irrégularités réglementaires.
 </t>
         </is>
       </c>
@@ -566,7 +580,9 @@
           <t>Organisation et activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fresenius est organisé en quatre groupements d'activités :
 Fresenius Medical Care, spécialisée dans les soins rénaux, tels que les produits de dialyse, les unités de soins en dialyse et les thérapies extracorporelles. Elle n'est détenue qu'à 30 % par Fresenius.
